--- a/data/trans_orig/P6604-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA627A0-FFF1-44E0-B923-180565453C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21D5F87-B084-4F8E-8AE5-FF544B0DCD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{588B3CE6-0C89-48AD-8A06-00CEE361E8E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9634128-6C2E-4883-B6C9-241FC0978462}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="801">
   <si>
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,2365 +77,2371 @@
     <t>14,16%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>39,9%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
   </si>
   <si>
     <t>42,53%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>10,08%</t>
   </si>
   <si>
     <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
   </si>
 </sst>
 </file>
@@ -2847,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBBB864-FFB4-4C80-B008-DB2E9E7EE773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852F14EA-0FAE-4881-8DAD-0D81DE131F22}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3282,10 +3288,10 @@
         <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3294,13 +3300,13 @@
         <v>42970</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -3309,13 +3315,13 @@
         <v>141057</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3336,13 @@
         <v>76031</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3345,13 +3351,13 @@
         <v>24742</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>97</v>
@@ -3360,13 +3366,13 @@
         <v>100773</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3387,13 @@
         <v>53769</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -3396,13 +3402,13 @@
         <v>11712</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -3411,13 +3417,13 @@
         <v>65482</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3479,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3485,13 +3491,13 @@
         <v>185336</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -3500,13 +3506,13 @@
         <v>147157</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>299</v>
@@ -3515,13 +3521,13 @@
         <v>332493</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3542,13 @@
         <v>125012</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -3551,13 +3557,13 @@
         <v>57702</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>170</v>
@@ -3566,13 +3572,13 @@
         <v>182714</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3593,13 @@
         <v>128665</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3602,13 +3608,13 @@
         <v>35856</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -3617,13 +3623,13 @@
         <v>164520</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3644,13 @@
         <v>119882</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3653,13 +3659,13 @@
         <v>27012</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -3668,13 +3674,13 @@
         <v>146894</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3736,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3742,13 +3748,13 @@
         <v>130008</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -3757,13 +3763,13 @@
         <v>99892</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -3772,13 +3778,13 @@
         <v>229901</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3799,13 @@
         <v>98900</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -3808,13 +3814,13 @@
         <v>57613</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>151</v>
@@ -3823,13 +3829,13 @@
         <v>156514</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3850,13 @@
         <v>103002</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -3859,13 +3865,13 @@
         <v>34190</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -3874,13 +3880,13 @@
         <v>137192</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3901,13 @@
         <v>74523</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3910,13 +3916,13 @@
         <v>20319</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -3925,13 +3931,13 @@
         <v>94841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3993,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3999,13 +4005,13 @@
         <v>220927</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>197</v>
@@ -4014,13 +4020,13 @@
         <v>206318</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -4029,13 +4035,13 @@
         <v>427245</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4056,13 @@
         <v>138808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -4065,13 +4071,13 @@
         <v>80130</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -4080,13 +4086,13 @@
         <v>218938</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4107,13 @@
         <v>118620</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -4116,13 +4122,13 @@
         <v>59624</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>178</v>
@@ -4131,13 +4137,13 @@
         <v>178244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4158,13 @@
         <v>76671</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -4167,13 +4173,13 @@
         <v>42051</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>116</v>
@@ -4182,13 +4188,13 @@
         <v>118722</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4262,13 @@
         <v>643500</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>494</v>
@@ -4271,13 +4277,13 @@
         <v>515729</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>1113</v>
@@ -4286,13 +4292,13 @@
         <v>1159228</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4313,13 @@
         <v>477790</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>234</v>
@@ -4322,13 +4328,13 @@
         <v>246142</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>695</v>
@@ -4337,13 +4343,13 @@
         <v>723932</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,10 +4364,10 @@
         <v>443382</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>215</v>
@@ -4373,7 +4379,7 @@
         <v>157125</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>216</v>
@@ -4522,7 +4528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DE7CB-ED65-4753-A20E-A13B710CAF3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91A252D-748C-45B5-8910-46E32C6A4AE8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4715,10 +4721,10 @@
         <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4727,13 +4733,13 @@
         <v>30573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4754,13 @@
         <v>8352</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4763,13 +4769,13 @@
         <v>5038</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4778,13 +4784,13 @@
         <v>13389</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4805,13 @@
         <v>13888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4814,13 +4820,13 @@
         <v>4547</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4829,13 +4835,13 @@
         <v>18435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4909,13 @@
         <v>59485</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>41</v>
@@ -4918,13 +4924,13 @@
         <v>43778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -4933,10 +4939,10 @@
         <v>103263</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>274</v>
@@ -4957,10 +4963,10 @@
         <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4969,13 +4975,13 @@
         <v>54636</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -4984,13 +4990,13 @@
         <v>134236</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5011,13 @@
         <v>53574</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5020,7 +5026,7 @@
         <v>27943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>286</v>
@@ -5038,10 +5044,10 @@
         <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5062,13 @@
         <v>23543</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5071,13 +5077,13 @@
         <v>9732</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -5086,13 +5092,13 @@
         <v>33275</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5154,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5160,13 +5166,13 @@
         <v>126924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -5175,13 +5181,13 @@
         <v>98337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>199</v>
@@ -5190,13 +5196,13 @@
         <v>225261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5217,13 @@
         <v>132608</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -5226,13 +5232,13 @@
         <v>98041</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M15" s="7">
         <v>215</v>
@@ -5241,13 +5247,13 @@
         <v>230649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>312</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5268,13 @@
         <v>91912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -5277,13 +5283,13 @@
         <v>52682</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -5292,13 +5298,13 @@
         <v>144594</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5319,13 @@
         <v>59246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -5328,13 +5334,13 @@
         <v>21527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -5343,13 +5349,13 @@
         <v>80774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5411,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5417,13 +5423,13 @@
         <v>96337</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -5432,13 +5438,13 @@
         <v>75128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -5447,13 +5453,13 @@
         <v>171465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5474,13 @@
         <v>107969</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -5483,13 +5489,13 @@
         <v>75476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>167</v>
@@ -5498,13 +5504,13 @@
         <v>183445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5525,13 @@
         <v>86084</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -5534,13 +5540,13 @@
         <v>40795</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -5549,13 +5555,13 @@
         <v>126880</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5576,13 @@
         <v>30075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5585,13 +5591,13 @@
         <v>22942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -5600,13 +5606,13 @@
         <v>53018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,7 +5668,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5674,13 +5680,13 @@
         <v>161890</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>364</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>121</v>
@@ -5689,13 +5695,13 @@
         <v>124070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>274</v>
@@ -5704,13 +5710,13 @@
         <v>285959</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5731,13 @@
         <v>118672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -5740,13 +5746,13 @@
         <v>100540</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>213</v>
@@ -5755,13 +5761,13 @@
         <v>219212</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>102475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5791,13 +5797,13 @@
         <v>45881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>142</v>
@@ -5806,13 +5812,13 @@
         <v>148356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5833,13 @@
         <v>32857</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>395</v>
       </c>
       <c r="H27" s="7">
         <v>28</v>
@@ -5842,13 +5848,13 @@
         <v>27985</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -5857,13 +5863,13 @@
         <v>60842</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5937,13 @@
         <v>452342</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>323</v>
@@ -5946,13 +5952,13 @@
         <v>348128</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>735</v>
@@ -5961,13 +5967,13 @@
         <v>800471</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,16 +5985,16 @@
         <v>442</v>
       </c>
       <c r="D30" s="7">
-        <v>460635</v>
+        <v>460634</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
         <v>313</v>
@@ -5997,13 +6003,13 @@
         <v>337479</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
         <v>755</v>
@@ -6012,13 +6018,13 @@
         <v>798114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>407</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6039,13 @@
         <v>342396</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>418</v>
       </c>
       <c r="H31" s="7">
         <v>155</v>
@@ -6048,13 +6054,13 @@
         <v>172339</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M31" s="7">
         <v>481</v>
@@ -6063,13 +6069,13 @@
         <v>514735</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6090,13 @@
         <v>159610</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="H32" s="7">
         <v>82</v>
@@ -6099,13 +6105,13 @@
         <v>86734</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>419</v>
+        <v>254</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="M32" s="7">
         <v>230</v>
@@ -6114,13 +6120,13 @@
         <v>246344</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +6138,7 @@
         <v>1328</v>
       </c>
       <c r="D33" s="7">
-        <v>1414983</v>
+        <v>1414982</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -6197,7 +6203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4225C-8563-4E81-AA1A-F7DD120CBF68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E931EF0F-C9C9-4679-8A40-C54FE54EB0EF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6214,7 +6220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6321,13 +6327,13 @@
         <v>10698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -6336,13 +6342,13 @@
         <v>10843</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -6351,13 +6357,13 @@
         <v>21541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6378,13 @@
         <v>18120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -6387,13 +6393,13 @@
         <v>11040</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -6402,13 +6408,13 @@
         <v>29160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6429,13 @@
         <v>10624</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -6438,13 +6444,13 @@
         <v>5181</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -6453,13 +6459,13 @@
         <v>15805</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6480,13 @@
         <v>3471</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6489,13 +6495,13 @@
         <v>2827</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6504,13 +6510,13 @@
         <v>6297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,10 +6587,10 @@
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -6593,13 +6599,13 @@
         <v>55287</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>118</v>
@@ -6608,13 +6614,13 @@
         <v>118154</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6635,13 @@
         <v>61753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -6644,13 +6650,13 @@
         <v>40157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -6659,13 +6665,13 @@
         <v>101910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6686,13 @@
         <v>46980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>474</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -6695,13 +6701,13 @@
         <v>22024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -6710,13 +6716,13 @@
         <v>69004</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>478</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6737,13 @@
         <v>27670</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>186</v>
+        <v>491</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -6746,13 +6752,13 @@
         <v>19056</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -6761,13 +6767,13 @@
         <v>46726</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,7 +6829,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6835,13 +6841,13 @@
         <v>131782</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -6850,13 +6856,13 @@
         <v>104905</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -6865,13 +6871,13 @@
         <v>236687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6892,13 @@
         <v>128915</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="H15" s="7">
         <v>85</v>
@@ -6901,13 +6907,13 @@
         <v>86813</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>510</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="M15" s="7">
         <v>201</v>
@@ -6916,13 +6922,13 @@
         <v>215727</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>503</v>
+        <v>338</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>63</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6943,13 @@
         <v>96643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -6952,13 +6958,13 @@
         <v>60476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -6967,13 +6973,13 @@
         <v>157119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>511</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,13 +6994,13 @@
         <v>52085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7003,13 +7009,13 @@
         <v>21578</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -7018,13 +7024,13 @@
         <v>73663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,7 +7086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7092,13 +7098,13 @@
         <v>72457</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -7107,13 +7113,13 @@
         <v>72804</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -7122,13 +7128,13 @@
         <v>145261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7149,13 @@
         <v>137504</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -7158,13 +7164,13 @@
         <v>93570</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>215</v>
@@ -7173,13 +7179,13 @@
         <v>231073</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>461</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7200,13 @@
         <v>81375</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>548</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -7209,13 +7215,13 @@
         <v>65306</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>345</v>
+        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>136</v>
@@ -7224,13 +7230,13 @@
         <v>146681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7251,13 @@
         <v>71368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -7260,13 +7266,13 @@
         <v>38879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>547</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -7275,13 +7281,13 @@
         <v>110247</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,7 +7343,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7349,13 +7355,13 @@
         <v>163186</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -7364,13 +7370,13 @@
         <v>152255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
         <v>302</v>
@@ -7379,13 +7385,13 @@
         <v>315442</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7406,13 @@
         <v>113732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>558</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -7415,13 +7421,13 @@
         <v>86519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>267</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
         <v>194</v>
@@ -7430,13 +7436,13 @@
         <v>200251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7457,13 @@
         <v>85417</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>54</v>
@@ -7466,13 +7472,13 @@
         <v>57556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -7481,13 +7487,13 @@
         <v>142974</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>108</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7508,13 @@
         <v>35163</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="H27" s="7">
         <v>26</v>
@@ -7517,13 +7523,13 @@
         <v>28147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>578</v>
+        <v>296</v>
       </c>
       <c r="M27" s="7">
         <v>59</v>
@@ -7532,13 +7538,13 @@
         <v>63310</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7612,13 @@
         <v>440990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="H29" s="7">
         <v>386</v>
@@ -7621,13 +7627,13 @@
         <v>396094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="M29" s="7">
         <v>796</v>
@@ -7636,13 +7642,13 @@
         <v>837084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,13 +7663,13 @@
         <v>460023</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="H30" s="7">
         <v>315</v>
@@ -7672,13 +7678,13 @@
         <v>318099</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>375</v>
+        <v>606</v>
       </c>
       <c r="M30" s="7">
         <v>741</v>
@@ -7687,13 +7693,13 @@
         <v>778122</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7714,13 @@
         <v>321041</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>599</v>
+        <v>176</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="H31" s="7">
         <v>206</v>
@@ -7723,13 +7729,13 @@
         <v>210542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M31" s="7">
         <v>510</v>
@@ -7738,13 +7744,13 @@
         <v>531582</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7765,13 @@
         <v>189757</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="H32" s="7">
         <v>104</v>
@@ -7774,13 +7780,13 @@
         <v>110486</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="M32" s="7">
         <v>277</v>
@@ -7789,13 +7795,13 @@
         <v>300243</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,7 +7878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4E20A-7DF6-4065-B4B1-EC90EA7E0604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78C2C06-C7EE-461E-AF97-D1243D86565E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7889,7 +7895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7996,13 +8002,13 @@
         <v>4543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -8011,13 +8017,13 @@
         <v>2056</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>583</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -8026,13 +8032,13 @@
         <v>6599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8053,13 @@
         <v>10536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -8062,13 +8068,13 @@
         <v>4415</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -8077,13 +8083,13 @@
         <v>14950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8104,13 @@
         <v>5667</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>634</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -8113,13 +8119,13 @@
         <v>8202</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>68</v>
+        <v>648</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -8128,13 +8134,13 @@
         <v>13869</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8155,13 @@
         <v>1570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>655</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8164,13 +8170,13 @@
         <v>2177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -8179,13 +8185,13 @@
         <v>3747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,13 +8259,13 @@
         <v>37389</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>649</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -8268,13 +8274,13 @@
         <v>26434</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>651</v>
+        <v>153</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>147</v>
+        <v>663</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -8283,13 +8289,13 @@
         <v>63823</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8310,13 @@
         <v>50295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>657</v>
+        <v>105</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -8319,13 +8325,13 @@
         <v>47872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>661</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -8334,13 +8340,13 @@
         <v>98167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>663</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8361,13 @@
         <v>31462</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>665</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -8370,13 +8376,13 @@
         <v>24178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -8385,13 +8391,13 @@
         <v>55639</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>679</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8406,13 +8412,13 @@
         <v>33342</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>121</v>
+        <v>682</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -8421,13 +8427,13 @@
         <v>18494</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="M12" s="7">
         <v>48</v>
@@ -8436,13 +8442,13 @@
         <v>51837</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,7 +8504,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8510,13 +8516,13 @@
         <v>142160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>681</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="H14" s="7">
         <v>86</v>
@@ -8525,13 +8531,13 @@
         <v>67809</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="M14" s="7">
         <v>166</v>
@@ -8540,13 +8546,13 @@
         <v>209969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>687</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,13 +8567,13 @@
         <v>103669</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="H15" s="7">
         <v>121</v>
@@ -8576,13 +8582,13 @@
         <v>88517</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>644</v>
+        <v>701</v>
       </c>
       <c r="M15" s="7">
         <v>222</v>
@@ -8591,13 +8597,13 @@
         <v>192186</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8612,13 +8618,13 @@
         <v>87871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>615</v>
+        <v>705</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>695</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -8627,13 +8633,13 @@
         <v>44645</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -8642,13 +8648,13 @@
         <v>132516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8663,13 +8669,13 @@
         <v>32910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>702</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -8678,13 +8684,13 @@
         <v>22958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -8693,13 +8699,13 @@
         <v>55868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>708</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,7 +8761,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8767,13 +8773,13 @@
         <v>56706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -8782,13 +8788,13 @@
         <v>46257</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>592</v>
+        <v>720</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>721</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="M19" s="7">
         <v>116</v>
@@ -8797,13 +8803,13 @@
         <v>102963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>715</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8818,13 +8824,13 @@
         <v>62873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>716</v>
+        <v>514</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>718</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -8833,13 +8839,13 @@
         <v>47577</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -8848,13 +8854,13 @@
         <v>110451</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>722</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8869,13 +8875,13 @@
         <v>36897</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>724</v>
+        <v>561</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>725</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -8884,13 +8890,13 @@
         <v>39084</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>731</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>726</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -8899,13 +8905,13 @@
         <v>75982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8920,13 +8926,13 @@
         <v>22688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>733</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -8935,13 +8941,13 @@
         <v>21664</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>734</v>
+        <v>48</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -8950,13 +8956,13 @@
         <v>44352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9012,7 +9018,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9024,13 +9030,13 @@
         <v>100228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -9039,13 +9045,13 @@
         <v>85174</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="M24" s="7">
         <v>210</v>
@@ -9054,13 +9060,13 @@
         <v>185402</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>29</v>
+        <v>749</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9075,13 +9081,13 @@
         <v>71541</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>748</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -9090,13 +9096,13 @@
         <v>61539</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>459</v>
+        <v>693</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="M25" s="7">
         <v>156</v>
@@ -9105,13 +9111,13 @@
         <v>133080</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9126,13 +9132,13 @@
         <v>34876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>755</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>756</v>
+        <v>713</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -9141,13 +9147,13 @@
         <v>33594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>578</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M26" s="7">
         <v>79</v>
@@ -9156,13 +9162,13 @@
         <v>68470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>760</v>
+        <v>38</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>761</v>
+        <v>528</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9210,10 +9216,10 @@
         <v>768</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>769</v>
+        <v>398</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>770</v>
+        <v>682</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9281,13 +9287,13 @@
         <v>341025</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H29" s="7">
         <v>301</v>
@@ -9296,13 +9302,13 @@
         <v>227730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="M29" s="7">
         <v>562</v>
@@ -9311,13 +9317,13 @@
         <v>568756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9332,13 +9338,13 @@
         <v>298914</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>285</v>
+        <v>777</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>333</v>
+        <v>779</v>
       </c>
       <c r="H30" s="7">
         <v>358</v>
@@ -9347,13 +9353,13 @@
         <v>249920</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>783</v>
       </c>
       <c r="M30" s="7">
         <v>644</v>
@@ -9362,13 +9368,13 @@
         <v>548834</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9383,13 +9389,13 @@
         <v>196772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>724</v>
+        <v>561</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>788</v>
       </c>
       <c r="H31" s="7">
         <v>201</v>
@@ -9398,13 +9404,13 @@
         <v>149704</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>791</v>
       </c>
       <c r="M31" s="7">
         <v>386</v>
@@ -9413,13 +9419,13 @@
         <v>346476</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>792</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,13 +9440,13 @@
         <v>118827</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>328</v>
+        <v>793</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>794</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>795</v>
       </c>
       <c r="H32" s="7">
         <v>101</v>
@@ -9449,13 +9455,13 @@
         <v>85907</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>156</v>
+        <v>797</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M32" s="7">
         <v>202</v>
@@ -9464,13 +9470,13 @@
         <v>204734</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
